--- a/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.620214356313153</v>
+        <v>4.6202143803831586</v>
       </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>1.5181602188581556</v>
       </c>
       <c r="D2">
-        <v>2.7619193124344621</v>
+        <v>2.7619193074456332</v>
       </c>
       <c r="E2">
-        <v>1.2843194657848493</v>
+        <v>1.2843194444211874</v>
       </c>
       <c r="F2">
-        <v>19.089950534241858</v>
+        <v>19.089950255830331</v>
       </c>
       <c r="G2">
-        <v>1.4969764689346718</v>
+        <v>1.4969764970449189</v>
       </c>
       <c r="H2">
-        <v>10.298676238979869</v>
+        <v>10.298675654108028</v>
       </c>
       <c r="I2">
-        <v>0.351120660406053</v>
+        <v>0.35112065784644392</v>
       </c>
       <c r="J2">
-        <v>2.1099814174640938</v>
+        <v>2.10998136279159</v>
       </c>
       <c r="K2">
-        <v>7.3527624613244686</v>
+        <v>7.3527622249656401</v>
       </c>
       <c r="L2">
-        <v>1.0646667403615209</v>
+        <v>1.0646667385344979</v>
       </c>
       <c r="M2">
-        <v>1.8693251982094534</v>
+        <v>1.8693251499413051</v>
       </c>
       <c r="N2">
-        <v>0.50816385633044803</v>
+        <v>0.50816385956356769</v>
       </c>
       <c r="O2">
-        <v>0.79482596202082634</v>
+        <v>0.79482596193631272</v>
       </c>
       <c r="P2">
-        <v>0.73588520866753127</v>
+        <v>0.73588519742327962</v>
       </c>
       <c r="Q2">
-        <v>0.56867452739778801</v>
+        <v>0.56867452917875727</v>
       </c>
       <c r="R2">
-        <v>1.913458073895137</v>
+        <v>1.9134581246704694</v>
       </c>
       <c r="S2">
-        <v>10.762374574369321</v>
+        <v>10.762374494068387</v>
       </c>
       <c r="T2">
-        <v>6.9818826541055801</v>
+        <v>6.981882767636459</v>
       </c>
       <c r="U2">
-        <v>0.9970945663443207</v>
+        <v>0.99709456459236989</v>
       </c>
       <c r="V2">
-        <v>9.0035894670842858</v>
+        <v>9.0035894587043011</v>
       </c>
       <c r="W2">
-        <v>3.3517861442803336</v>
+        <v>3.3517860885003339</v>
       </c>
       <c r="X2">
-        <v>0.16901883296205064</v>
+        <v>0.1690188321671216</v>
       </c>
       <c r="Y2">
-        <v>0.74504287179452766</v>
+        <v>0.74504286969914246</v>
       </c>
       <c r="AA2">
-        <v>1.1766916192875567</v>
+        <v>1.17669160580286</v>
       </c>
       <c r="AB2">
-        <v>0.25979417469888122</v>
+        <v>0.25979417625923579</v>
       </c>
       <c r="AC2">
-        <v>4.7458175455908309</v>
+        <v>4.7458174907325406</v>
       </c>
       <c r="AD2">
-        <v>0.51181545523876804</v>
+        <v>0.51181545246090454</v>
       </c>
       <c r="AE2">
-        <v>5.8007715007582048</v>
+        <v>5.8007715379336862</v>
       </c>
       <c r="AF2">
-        <v>1.43008446988192</v>
+        <v>1.4300844358527853</v>
       </c>
       <c r="AG2">
-        <v>2.5977949925773518</v>
+        <v>2.5977947968566291</v>
       </c>
       <c r="AH2">
-        <v>0.2693586348915476</v>
+        <v>0.26935863335922156</v>
       </c>
       <c r="AI2">
-        <v>1.5295226955180641</v>
+        <v>1.5295226982468673</v>
       </c>
       <c r="AJ2">
-        <v>9.3533995736148583</v>
+        <v>9.3533995219704114</v>
       </c>
       <c r="AK2">
-        <v>0.89274532439550269</v>
+        <v>0.89274531190521689</v>
       </c>
       <c r="AL2">
-        <v>1.5061651834757486</v>
+        <v>1.5061651578286985</v>
       </c>
       <c r="AM2">
-        <v>0.18194794842272327</v>
+        <v>0.1819479467631088</v>
       </c>
       <c r="AN2">
-        <v>1.0116944312407448</v>
+        <v>1.0116944267165686</v>
       </c>
       <c r="AO2">
-        <v>1.1373144656395568</v>
+        <v>1.1373144733069893</v>
       </c>
       <c r="AP2">
-        <v>0.35597509542911532</v>
+        <v>0.35597507629213332</v>
       </c>
       <c r="AQ2">
-        <v>1.5369554285978271</v>
+        <v>1.5369554148439599</v>
       </c>
       <c r="AR2">
-        <v>1.5964838066196181</v>
+        <v>1.5964837452487437</v>
       </c>
       <c r="AS2">
-        <v>3.9490976195073495</v>
+        <v>3.9490976309519388</v>
       </c>
       <c r="AT2">
-        <v>0.76423639420778322</v>
+        <v>0.76423639058498394</v>
       </c>
       <c r="AU2">
-        <v>6.8612856486305223</v>
+        <v>6.8612855976862495</v>
       </c>
       <c r="AV2">
-        <v>0.78837657431745678</v>
+        <v>0.7883765686556139</v>
       </c>
       <c r="AW2">
-        <v>0.26914459569301058</v>
+        <v>0.26914459524751938</v>
       </c>
       <c r="AX2">
-        <v>0.39744617361206874</v>
+        <v>0.3974461749281411</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>15.717855166511745</v>
       </c>
       <c r="C3">
-        <v>0.52774318043851287</v>
+        <v>0.52774317960444295</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>2.2257217377871363</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>12.642427073234092</v>
       </c>
       <c r="F3">
-        <v>1.6460195939559834</v>
+        <v>1.6460196077147184</v>
       </c>
       <c r="G3">
-        <v>1.2441677605011701</v>
+        <v>1.244167757116762</v>
       </c>
       <c r="H3">
-        <v>8.9912367319331068</v>
+        <v>8.9912366284382621</v>
       </c>
       <c r="I3">
-        <v>0.81049855385200242</v>
+        <v>0.81049856385512198</v>
       </c>
       <c r="J3">
-        <v>2.706789161487626</v>
+        <v>2.7067892517004219</v>
       </c>
       <c r="K3">
-        <v>8.0509502774274306</v>
+        <v>8.0509503149806143</v>
       </c>
       <c r="L3">
-        <v>1.5140763413443978</v>
+        <v>1.5140763380018101</v>
       </c>
       <c r="M3">
-        <v>0.83100119536556227</v>
+        <v>0.83105753746168565</v>
       </c>
       <c r="N3">
-        <v>1.5369248642630922</v>
+        <v>1.5369245927528954</v>
       </c>
       <c r="O3">
-        <v>1.9833559064655522</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="P3">
-        <v>0.42068537725996313</v>
+        <v>0.42068537217109209</v>
       </c>
       <c r="Q3">
-        <v>0.35210628618029965</v>
+        <v>0.35210628361148311</v>
       </c>
       <c r="R3">
-        <v>0.89811331408014039</v>
+        <v>0.89811331479975587</v>
       </c>
       <c r="S3">
-        <v>6.8127429171075562</v>
+        <v>6.8127429808191478</v>
       </c>
       <c r="T3">
-        <v>1.008491434863479</v>
+        <v>1.0084914497623849</v>
       </c>
       <c r="U3">
-        <v>1.2172997873364579</v>
+        <v>1.2172997879807834</v>
       </c>
       <c r="V3">
-        <v>9.2255737855831992</v>
+        <v>9.2255737893746481</v>
       </c>
       <c r="W3">
-        <v>1.4533612546705603</v>
+        <v>1.4533613188206502</v>
       </c>
       <c r="X3">
-        <v>0.63817814827434405</v>
+        <v>0.638178149827901</v>
       </c>
       <c r="Y3">
-        <v>0.69965873451788718</v>
+        <v>0.69965872520241068</v>
       </c>
       <c r="AA3">
-        <v>0.82832775351167243</v>
+        <v>0.82832780282742091</v>
       </c>
       <c r="AB3">
-        <v>1.995825315520197</v>
+        <v>1.9958253208964447</v>
       </c>
       <c r="AC3">
-        <v>5.3075031590658339</v>
+        <v>5.3075032534768756</v>
       </c>
       <c r="AD3">
-        <v>1.3598566282084272</v>
+        <v>1.3598566223623967</v>
       </c>
       <c r="AE3">
-        <v>0.47863253179849252</v>
+        <v>0.47863251297066506</v>
       </c>
       <c r="AF3">
-        <v>0.73195520454658825</v>
+        <v>0.73195519889117477</v>
       </c>
       <c r="AG3">
-        <v>2.1861203654879184</v>
+        <v>2.18612031547275</v>
       </c>
       <c r="AH3">
-        <v>0.54580257800768472</v>
+        <v>0.54580257829261136</v>
       </c>
       <c r="AI3">
-        <v>1.8566180843232847</v>
+        <v>1.8566180687847935</v>
       </c>
       <c r="AJ3">
-        <v>4.4298574095542058</v>
+        <v>4.4298574061681384</v>
       </c>
       <c r="AK3">
-        <v>0.34852058006504183</v>
+        <v>0.34852057871753706</v>
       </c>
       <c r="AL3">
-        <v>1.4584957212251799</v>
+        <v>1.4584957578711495</v>
       </c>
       <c r="AM3">
-        <v>0.88281364225013292</v>
+        <v>0.88281367201455507</v>
       </c>
       <c r="AN3">
-        <v>1.3291069701148672</v>
+        <v>1.3291069666644408</v>
       </c>
       <c r="AO3">
-        <v>0.54384104127749722</v>
+        <v>0.54384103566955055</v>
       </c>
       <c r="AP3">
-        <v>0.17613194752033967</v>
+        <v>0.17613194559700768</v>
       </c>
       <c r="AQ3">
-        <v>1.2362487562884414</v>
+        <v>1.2362487559289375</v>
       </c>
       <c r="AR3">
-        <v>2.9097266760449227</v>
+        <v>2.9097266762708855</v>
       </c>
       <c r="AS3">
-        <v>0.89129398697506534</v>
+        <v>0.89129400560909211</v>
       </c>
       <c r="AT3">
-        <v>0.42785191219645879</v>
+        <v>0.42785191177053389</v>
       </c>
       <c r="AU3">
-        <v>8.9485972758438717</v>
+        <v>8.9485972390049362</v>
       </c>
       <c r="AV3">
-        <v>0.44327615865375514</v>
+        <v>0.44327613830127344</v>
       </c>
       <c r="AW3">
-        <v>0.26340798030930312</v>
+        <v>0.26340797918840897</v>
       </c>
       <c r="AX3">
-        <v>0.8946954259301988</v>
+        <v>0.89469542485415121</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.6202143803831586</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5181602188581556</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.7619193074456332</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.2843194444211874</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.089950255830331</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4969764970449189</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.298675654108028</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.35112065784644392</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.10998136279159</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.3527622249656401</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.0646667385344979</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.8693251499413051</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.50816385956356769</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.79482596193631272</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.73588519742327962</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.56867452917875727</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.9134581246704694</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>10.762374494068387</v>
@@ -585,55 +474,55 @@
         <v>0.74504286969914246</v>
       </c>
       <c r="AA2">
-        <v>1.17669160580286</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.25979417625923579</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.7458174907325406</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.51181545246090454</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.8007715379336862</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.4300844358527853</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.5977947968566291</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.26935863335922156</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.5295226982468673</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.3533995219704114</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.89274531190521689</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.5061651578286985</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.1819479467631088</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.0116944267165686</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.1373144733069893</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.35597507629213332</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.5369554148439599</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.5964837452487437</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.3974461749281411</v>
       </c>
+      <c r="AY2">
+        <v>1.8964133764518347</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.717855166511745</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.52774317960444295</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.2257217377871363</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.642427073234092</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.6460196077147184</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.244167757116762</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.9912366284382621</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.81049856385512198</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.7067892517004219</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.0509503149806143</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5140763380018101</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.83105753746168565</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.5369245927528954</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.9833558962570397</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.42068537217109209</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.35210628361148311</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.89811331479975587</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.8127429808191478</v>
@@ -734,55 +623,55 @@
         <v>0.69965872520241068</v>
       </c>
       <c r="AA3">
-        <v>0.82832780282742091</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.9958253208964447</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.3075032534768756</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.3598566223623967</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.47863251297066506</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.73195519889117477</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.18612031547275</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.54580257829261136</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.8566180687847935</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.4298574061681384</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.34852057871753706</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.4584957578711495</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.88281367201455507</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.3291069666644408</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.54384103566955055</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.17613194559700768</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.2362487559289375</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.9097266762708855</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.89469542485415121</v>
+      </c>
+      <c r="AY3">
+        <v>0.89220554342342417</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.620214356313153</v>
+        <v>0.43700851002199509</v>
       </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>1.9134581246704694</v>
       </c>
       <c r="D2">
-        <v>2.5069953191169376</v>
+        <v>1.0116944267165686</v>
       </c>
       <c r="E2">
-        <v>1.2843194657848493</v>
+        <v>1.5369554148439599</v>
       </c>
       <c r="F2">
         <v>19.089950534241858</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="C3">
-        <v>0.52774318043851287</v>
+        <v>0.89811331479975587</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>1.3291069666644408</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>1.0594127414566454</v>
       </c>
       <c r="F3">
         <v>1.6460195939559834</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.620214356313153</v>
-      </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>0.68758068472521283</v>
       </c>
       <c r="D2">
-        <v>2.5069953191169376</v>
+        <v>0.38194044403600752</v>
       </c>
       <c r="E2">
-        <v>1.2843194657848493</v>
+        <v>1.0810840941366469</v>
       </c>
       <c r="F2">
         <v>19.089950534241858</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>1.5369245927528954</v>
       </c>
       <c r="C3">
-        <v>0.52774318043851287</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>0.88281367201455507</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>1.3291069666644408</v>
       </c>
       <c r="F3">
         <v>1.6460195939559834</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>8.2455815152681566</v>
+      </c>
       <c r="C2">
+        <v>1.5181602188581556</v>
+      </c>
+      <c r="D2">
+        <v>7.0682259608920548</v>
+      </c>
+      <c r="E2">
+        <v>6.2007461998205153</v>
+      </c>
+      <c r="F2">
+        <v>19.089950255830331</v>
+      </c>
+      <c r="G2">
+        <v>1.4969764970449189</v>
+      </c>
+      <c r="H2">
+        <v>17.805598407674829</v>
+      </c>
+      <c r="I2">
+        <v>0.70902749970413548</v>
+      </c>
+      <c r="J2">
+        <v>2.1443230355309444</v>
+      </c>
+      <c r="K2">
+        <v>16.997434343459027</v>
+      </c>
+      <c r="L2">
+        <v>1.9557446545184696</v>
+      </c>
+      <c r="M2">
+        <v>1.8693251499413051</v>
+      </c>
+      <c r="O2">
         <v>0.68758068472521283</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.73588519742327962</v>
+      </c>
+      <c r="Q2">
+        <v>0.56867452917875727</v>
+      </c>
+      <c r="R2">
+        <v>1.9134581246704694</v>
+      </c>
+      <c r="S2">
+        <v>14.005183669655835</v>
+      </c>
+      <c r="T2">
+        <v>7.1860094712477975</v>
+      </c>
+      <c r="U2">
+        <v>2.2007125978153677</v>
+      </c>
+      <c r="V2">
+        <v>14.942902533028336</v>
+      </c>
+      <c r="W2">
+        <v>9.1571844346414704</v>
+      </c>
+      <c r="X2">
+        <v>0.96837254880435886</v>
+      </c>
+      <c r="Y2">
+        <v>0.76500555303369921</v>
+      </c>
+      <c r="AA2">
+        <v>1.3174212686953335</v>
+      </c>
+      <c r="AB2">
+        <v>0.25979417625923257</v>
+      </c>
+      <c r="AC2">
+        <v>18.236220203204162</v>
+      </c>
+      <c r="AD2">
+        <v>2.3825799037376023</v>
+      </c>
+      <c r="AE2">
+        <v>5.8007715379336862</v>
+      </c>
+      <c r="AF2">
+        <v>1.4300844358527853</v>
+      </c>
+      <c r="AG2">
+        <v>5.3355431929658241</v>
+      </c>
+      <c r="AH2">
+        <v>0.95857003269756547</v>
+      </c>
+      <c r="AI2">
+        <v>1.4620768324246449</v>
+      </c>
+      <c r="AJ2">
+        <v>8.5128953544944004</v>
+      </c>
+      <c r="AK2">
+        <v>1.4725836688546088</v>
+      </c>
+      <c r="AL2">
+        <v>1.5061651578286985</v>
+      </c>
+      <c r="AM2">
         <v>0.38194044403600752</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.0810840941366469</v>
       </c>
-      <c r="F2">
-        <v>19.089950534241858</v>
-      </c>
-      <c r="G2">
-        <v>1.4969764689346718</v>
-      </c>
-      <c r="H2">
-        <v>10.298676238979869</v>
-      </c>
-      <c r="I2">
-        <v>0.351120660406053</v>
-      </c>
-      <c r="J2">
-        <v>2.1099814174640938</v>
-      </c>
-      <c r="K2">
-        <v>7.3527624613244686</v>
-      </c>
-      <c r="L2">
-        <v>1.0646667403615209</v>
-      </c>
-      <c r="M2">
-        <v>1.8693251982094534</v>
-      </c>
-      <c r="O2">
-        <v>0.43700851086287801</v>
-      </c>
-      <c r="P2">
-        <v>0.73588520866753127</v>
-      </c>
-      <c r="Q2">
-        <v>0.56867452739778801</v>
-      </c>
-      <c r="R2">
-        <v>1.913458073895137</v>
-      </c>
-      <c r="S2">
-        <v>10.762374574369321</v>
-      </c>
-      <c r="T2">
-        <v>7.186009559303832</v>
-      </c>
-      <c r="U2">
-        <v>0.9970945663443207</v>
-      </c>
-      <c r="V2">
-        <v>9.0035894670842858</v>
-      </c>
-      <c r="W2">
-        <v>3.3790813990651229</v>
-      </c>
-      <c r="X2">
-        <v>0.16901883296205064</v>
-      </c>
-      <c r="Y2">
-        <v>0.7487289322436872</v>
-      </c>
-      <c r="AA2">
-        <v>1.1766916192875567</v>
-      </c>
-      <c r="AB2">
-        <v>0.25979417469887972</v>
-      </c>
-      <c r="AC2">
-        <v>4.7458175455908309</v>
-      </c>
-      <c r="AD2">
-        <v>0.51181545523876804</v>
-      </c>
-      <c r="AE2">
-        <v>5.8007715007582048</v>
-      </c>
-      <c r="AF2">
-        <v>1.43008446988192</v>
-      </c>
-      <c r="AG2">
-        <v>2.5977949925773518</v>
-      </c>
-      <c r="AH2">
-        <v>0.47938436609980134</v>
-      </c>
-      <c r="AI2">
-        <v>1.5295226955180641</v>
-      </c>
-      <c r="AJ2">
-        <v>9.3533995736148583</v>
-      </c>
-      <c r="AK2">
-        <v>0.89274532439550269</v>
-      </c>
-      <c r="AL2">
-        <v>1.5061651834757486</v>
-      </c>
-      <c r="AM2">
-        <v>0.18194794842272327</v>
-      </c>
-      <c r="AN2">
-        <v>1.0116944312407448</v>
-      </c>
       <c r="AO2">
-        <v>1.1373144656395568</v>
+        <v>1.1373144733069893</v>
       </c>
       <c r="AP2">
-        <v>0.3209168241449108</v>
+        <v>0.32091681009808809</v>
       </c>
       <c r="AQ2">
-        <v>1.5369554285978271</v>
+        <v>1.5369554148439599</v>
       </c>
       <c r="AR2">
-        <v>1.5964838066196181</v>
+        <v>6.0487995576750206</v>
       </c>
       <c r="AS2">
-        <v>3.9490976195073495</v>
+        <v>3.9490976309519388</v>
       </c>
       <c r="AT2">
-        <v>0.76423639420778322</v>
+        <v>0.90319252048301857</v>
       </c>
       <c r="AU2">
-        <v>6.8612856486305223</v>
+        <v>14.810509708537634</v>
       </c>
       <c r="AV2">
-        <v>0.79094839400295069</v>
+        <v>5.8678360475250413</v>
       </c>
       <c r="AW2">
-        <v>0.26914459569301058</v>
+        <v>0.36602831682306253</v>
       </c>
       <c r="AX2">
-        <v>0.3974461736121061</v>
+        <v>0.38249313469003188</v>
       </c>
       <c r="AY2">
-        <v>1.8964133721312659</v>
+        <v>1.8964133764518347</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.717855166511745</v>
+      </c>
+      <c r="C3">
+        <v>1.0464923569027336</v>
+      </c>
+      <c r="D3">
+        <v>2.2257217377871363</v>
+      </c>
+      <c r="E3">
+        <v>12.642427073234092</v>
+      </c>
+      <c r="F3">
+        <v>3.2022287190448608</v>
+      </c>
+      <c r="G3">
+        <v>1.4184725821481472</v>
+      </c>
+      <c r="H3">
+        <v>8.9912366284382621</v>
+      </c>
+      <c r="I3">
+        <v>1.153511242789977</v>
+      </c>
+      <c r="J3">
+        <v>2.7067892517004219</v>
+      </c>
+      <c r="K3">
+        <v>8.0509503149806143</v>
+      </c>
+      <c r="L3">
+        <v>1.5140763380018101</v>
+      </c>
+      <c r="M3">
+        <v>2.3080494568085923</v>
+      </c>
+      <c r="N3">
         <v>1.5369245927528954</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.9833558962570397</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.53212170169419892</v>
+      </c>
+      <c r="Q3">
+        <v>0.37592062796803083</v>
+      </c>
+      <c r="R3">
+        <v>3.2906723697330023</v>
+      </c>
+      <c r="S3">
+        <v>8.4854092056899724</v>
+      </c>
+      <c r="T3">
+        <v>1.5063640515378924</v>
+      </c>
+      <c r="U3">
+        <v>1.2172997879807834</v>
+      </c>
+      <c r="V3">
+        <v>9.2255737893746481</v>
+      </c>
+      <c r="W3">
+        <v>1.4584447067841801</v>
+      </c>
+      <c r="X3">
+        <v>0.638178149827901</v>
+      </c>
+      <c r="Y3">
+        <v>0.69965872520241068</v>
+      </c>
+      <c r="AA3">
+        <v>0.82832780282742091</v>
+      </c>
+      <c r="AB3">
+        <v>5.1120181048062241</v>
+      </c>
+      <c r="AC3">
+        <v>1.5864320644704546</v>
+      </c>
+      <c r="AD3">
+        <v>1.3598566223623967</v>
+      </c>
+      <c r="AE3">
+        <v>1.5035660648130826</v>
+      </c>
+      <c r="AF3">
+        <v>0.94129341782263221</v>
+      </c>
+      <c r="AG3">
+        <v>2.18612031547275</v>
+      </c>
+      <c r="AH3">
+        <v>0.2102856113321904</v>
+      </c>
+      <c r="AI3">
+        <v>1.8566180687847935</v>
+      </c>
+      <c r="AJ3">
+        <v>4.4298574061681384</v>
+      </c>
+      <c r="AK3">
+        <v>0.34852057871753706</v>
+      </c>
+      <c r="AL3">
+        <v>2.9461708028504048</v>
+      </c>
+      <c r="AM3">
         <v>0.88281367201455507</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.3291069666644408</v>
       </c>
-      <c r="F3">
-        <v>1.6460195939559834</v>
-      </c>
-      <c r="G3">
-        <v>1.2441677605011701</v>
-      </c>
-      <c r="H3">
-        <v>8.9912367319331068</v>
-      </c>
-      <c r="I3">
-        <v>1.1535112280562616</v>
-      </c>
-      <c r="J3">
-        <v>2.706789161487626</v>
-      </c>
-      <c r="K3">
-        <v>8.0509502774274306</v>
-      </c>
-      <c r="L3">
-        <v>1.5140763413443978</v>
-      </c>
-      <c r="M3">
-        <v>0.83100119536556227</v>
-      </c>
-      <c r="N3">
-        <v>1.5369248642630922</v>
-      </c>
-      <c r="O3">
-        <v>1.9833559064655522</v>
-      </c>
-      <c r="P3">
-        <v>0.42068537725996313</v>
-      </c>
-      <c r="Q3">
-        <v>0.35210628618029965</v>
-      </c>
-      <c r="R3">
-        <v>0.89811331408014039</v>
-      </c>
-      <c r="S3">
-        <v>8.4854090407408442</v>
-      </c>
-      <c r="T3">
-        <v>0.92295038093540982</v>
-      </c>
-      <c r="U3">
-        <v>1.2172997873364579</v>
-      </c>
-      <c r="V3">
-        <v>9.2255737855831992</v>
-      </c>
-      <c r="W3">
-        <v>1.4584445131676373</v>
-      </c>
-      <c r="X3">
-        <v>0.63817814827434405</v>
-      </c>
-      <c r="Y3">
-        <v>0.69965873451788718</v>
-      </c>
-      <c r="AA3">
-        <v>0.82832775351167243</v>
-      </c>
-      <c r="AB3">
-        <v>1.995825315520197</v>
-      </c>
-      <c r="AC3">
-        <v>1.5864321074038932</v>
-      </c>
-      <c r="AD3">
-        <v>1.3598566282084272</v>
-      </c>
-      <c r="AE3">
-        <v>0.47863253179849252</v>
-      </c>
-      <c r="AF3">
-        <v>0.73195520454675167</v>
-      </c>
-      <c r="AG3">
-        <v>2.1861203654879184</v>
-      </c>
-      <c r="AH3">
-        <v>0.21028561346948133</v>
-      </c>
-      <c r="AI3">
-        <v>1.8566180843232847</v>
-      </c>
-      <c r="AJ3">
-        <v>4.4298574095542058</v>
-      </c>
-      <c r="AK3">
-        <v>0.34852058006504183</v>
-      </c>
-      <c r="AL3">
-        <v>1.4584957212251799</v>
-      </c>
-      <c r="AM3">
-        <v>0.88281364225013292</v>
-      </c>
-      <c r="AN3">
-        <v>1.3291069701148672</v>
-      </c>
       <c r="AO3">
-        <v>0.54384104127749722</v>
+        <v>0.63028222172868609</v>
       </c>
       <c r="AP3">
-        <v>0.1575381963216243</v>
+        <v>0.23358596683005944</v>
       </c>
       <c r="AQ3">
-        <v>1.0594127305937171</v>
+        <v>2.571109060183042</v>
       </c>
       <c r="AR3">
-        <v>2.9097266760449227</v>
+        <v>2.9097266762708855</v>
       </c>
       <c r="AS3">
-        <v>0.89129398697506534</v>
+        <v>0.6934820542867095</v>
       </c>
       <c r="AT3">
-        <v>0.42785191219645879</v>
+        <v>0.42785191177053389</v>
       </c>
       <c r="AU3">
-        <v>8.9485972758438717</v>
+        <v>8.9485972390049362</v>
       </c>
       <c r="AV3">
-        <v>0.4533645874662301</v>
+        <v>0.4533645639559517</v>
       </c>
       <c r="AW3">
-        <v>0.26340798030930312</v>
+        <v>0.26340797918840897</v>
       </c>
       <c r="AX3">
-        <v>0.8946954259301988</v>
+        <v>0.89469542485415121</v>
       </c>
       <c r="AY3">
-        <v>0.89220555098426879</v>
+        <v>0.93806961600368111</v>
       </c>
     </row>
   </sheetData>
